--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -26323,7 +26325,7 @@
         <v>7854.205858090253</v>
       </c>
       <c r="F2" t="n">
-        <v>7854.205858090252</v>
+        <v>7854.205858090253</v>
       </c>
       <c r="G2" t="n">
         <v>7854.205858090253</v>
@@ -26347,13 +26349,13 @@
         <v>7854.205858090253</v>
       </c>
       <c r="N2" t="n">
+        <v>7854.205858090254</v>
+      </c>
+      <c r="O2" t="n">
         <v>7854.205858090253</v>
       </c>
-      <c r="O2" t="n">
-        <v>7854.205858090252</v>
-      </c>
       <c r="P2" t="n">
-        <v>7854.205858090254</v>
+        <v>7854.205858090253</v>
       </c>
     </row>
     <row r="3">
@@ -26531,7 +26533,7 @@
         <v>1963.551464522564</v>
       </c>
       <c r="F6" t="n">
-        <v>1963.551464522563</v>
+        <v>1963.551464522564</v>
       </c>
       <c r="G6" t="n">
         <v>1963.551464522564</v>
@@ -26555,13 +26557,13 @@
         <v>1963.551464522564</v>
       </c>
       <c r="N6" t="n">
+        <v>1963.551464522565</v>
+      </c>
+      <c r="O6" t="n">
         <v>1963.551464522564</v>
       </c>
-      <c r="O6" t="n">
-        <v>1963.551464522563</v>
-      </c>
       <c r="P6" t="n">
-        <v>1963.551464522565</v>
+        <v>1963.551464522564</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-75561.1290039476</v>
+        <v>-86922.49734557184</v>
       </c>
     </row>
     <row r="7">
@@ -26319,7 +26319,7 @@
         <v>7854.205858090253</v>
       </c>
       <c r="D2" t="n">
-        <v>7854.205858090253</v>
+        <v>7854.205858090252</v>
       </c>
       <c r="E2" t="n">
         <v>7854.205858090253</v>
@@ -26334,7 +26334,7 @@
         <v>7854.205858090253</v>
       </c>
       <c r="I2" t="n">
-        <v>7854.205858090253</v>
+        <v>7854.205858090254</v>
       </c>
       <c r="J2" t="n">
         <v>7854.205858090253</v>
@@ -26349,7 +26349,7 @@
         <v>7854.205858090253</v>
       </c>
       <c r="N2" t="n">
-        <v>7854.205858090254</v>
+        <v>7854.205858090253</v>
       </c>
       <c r="O2" t="n">
         <v>7854.205858090253</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31664.04853547744</v>
+        <v>-33021.97763227922</v>
       </c>
       <c r="C6" t="n">
-        <v>-31664.04853547744</v>
+        <v>-33021.97763227922</v>
       </c>
       <c r="D6" t="n">
-        <v>-31664.04853547744</v>
+        <v>-33021.97763227922</v>
       </c>
       <c r="E6" t="n">
-        <v>1963.551464522564</v>
+        <v>605.6223677207845</v>
       </c>
       <c r="F6" t="n">
-        <v>1963.551464522564</v>
+        <v>605.6223677207845</v>
       </c>
       <c r="G6" t="n">
-        <v>1963.551464522564</v>
+        <v>605.6223677207845</v>
       </c>
       <c r="H6" t="n">
-        <v>1963.551464522564</v>
+        <v>605.6223677207845</v>
       </c>
       <c r="I6" t="n">
-        <v>1963.551464522564</v>
+        <v>605.6223677207854</v>
       </c>
       <c r="J6" t="n">
-        <v>1963.551464522564</v>
+        <v>605.6223677207845</v>
       </c>
       <c r="K6" t="n">
-        <v>1963.551464522564</v>
+        <v>605.6223677207845</v>
       </c>
       <c r="L6" t="n">
-        <v>1963.551464522564</v>
+        <v>605.6223677207845</v>
       </c>
       <c r="M6" t="n">
-        <v>1963.551464522564</v>
+        <v>605.6223677207845</v>
       </c>
       <c r="N6" t="n">
-        <v>1963.551464522565</v>
+        <v>605.6223677207845</v>
       </c>
       <c r="O6" t="n">
-        <v>1963.551464522564</v>
+        <v>605.6223677207845</v>
       </c>
       <c r="P6" t="n">
-        <v>1963.551464522564</v>
+        <v>605.6223677207845</v>
       </c>
     </row>
   </sheetData>
